--- a/biology/Écologie/Système_naturel/Système_naturel.xlsx
+++ b/biology/Écologie/Système_naturel/Système_naturel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_naturel</t>
+          <t>Système_naturel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un système naturel est une entité complexe dans le temps et l'espace, dont les unités constitutives interagissent entre elles pour préserver l'intégrité, la structure et le comportement du système plus vaste auxquelles elles appartiennent, système qu'elles tendent à restaurer après une perturbation non destructrice, assurant par la même leur propre préservation.
 Quelques exemples de systèmes naturels :
